--- a/_doc/insert.xlsx
+++ b/_doc/insert.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qproject\python\dynamic_law\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QProject\python\dynamic_law\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE41DDF-0C1E-4D3B-8682-31BF39E34B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27929481-435F-451B-B97B-7E36874FBE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{696F1BCD-EBE7-44DD-A743-535F13B4B869}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{696F1BCD-EBE7-44DD-A743-535F13B4B869}"/>
   </bookViews>
   <sheets>
     <sheet name="Compliance Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Compliance Mainboard" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="LU" sheetId="2" r:id="rId4"/>
+    <sheet name="Company" sheetId="7" r:id="rId4"/>
+    <sheet name="LU" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="1790">
   <si>
     <t>id</t>
   </si>
@@ -5360,6 +5370,45 @@
   </si>
   <si>
     <t>PKS</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>next_inspection_date</t>
+  </si>
+  <si>
+    <t>PT ANTAM Tbk</t>
+  </si>
+  <si>
+    <t>[NULL]</t>
+  </si>
+  <si>
+    <t>UBPE Pongkor</t>
+  </si>
+  <si>
+    <t>UBPN Malut</t>
+  </si>
+  <si>
+    <t>UBPP LM</t>
+  </si>
+  <si>
+    <t>Geomin</t>
+  </si>
+  <si>
+    <t>UBPB KalBar</t>
+  </si>
+  <si>
+    <t>Konawe Utara</t>
+  </si>
+  <si>
+    <t>UBPN Kolaka</t>
+  </si>
+  <si>
+    <t>LPM</t>
   </si>
 </sst>
 </file>
@@ -5367,8 +5416,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -5438,9 +5487,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5449,10 +5498,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -40232,7 +40283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B996A3B2-11BA-4F81-ACFB-7C8DE6E8C5B7}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2:M31"/>
     </sheetView>
@@ -41086,6 +41137,296 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0875E827-B6D0-4A09-9FB5-91C5EBE04300}">
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G2" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H2" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values ("&amp;C2&amp;", '"&amp;D2&amp;"', '"&amp;E2&amp;"', "&amp;IF(F2="","NULL",F2)&amp;", '2026-05-05');"</f>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'PT ANTAM Tbk', '1', [NULL], '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H3" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I10" si="0">"INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values ("&amp;C3&amp;", '"&amp;D3&amp;"', '"&amp;E3&amp;"', "&amp;IF(F3="","NULL",F3)&amp;", '2026-05-05');"</f>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'UBPE Pongkor', '1.1', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H4" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'UBPN Malut', '1.2', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E5">
+        <v>1.3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H5" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'UBPP LM', '1.3', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'Geomin', '1.4', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H7" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'UBPB KalBar', '1.5', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E8">
+        <v>1.6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'Konawe Utara', '1.6', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E9">
+        <v>1.7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'UBPN Kolaka', '1.7', 1, '2026-05-05');</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>46124</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45778.329669930557</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.company_structure (group_id, company_name, input_code, parent_id, next_inspection_date) Values (1, 'LPM', '1.8', 1, '2026-05-05');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B1745-FE93-4DAD-9359-6619326902B7}">
   <dimension ref="B2:B9"/>
   <sheetViews>
